--- a/TestCases/Data/CSV/test_demand_IFS_result1.xlsx
+++ b/TestCases/Data/CSV/test_demand_IFS_result1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,32 +446,32 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Material&amp;Quality</t>
+          <t>Material</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Material</t>
+          <t>Quality</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Quality</t>
+          <t>Length</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Length</t>
+          <t>Height</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Height</t>
+          <t>Width</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Width</t>
+          <t>Volume</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -481,65 +481,60 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Volume</t>
+          <t>Profile</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Moment of Inertia</t>
+          <t>Iy e-6</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Profile</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>Site_lat</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Site_lat</t>
+          <t>Site_lon</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Site_lon</t>
+          <t>Gwp_factor</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Gwp_factor</t>
+          <t>Price</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Price</t>
+          <t>Distance</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Distance</t>
+          <t>Score</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Score</t>
+          <t>Transportation</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Transportation</t>
+          <t>Price pr element</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Price pr element</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>GWP pr element</t>
         </is>
@@ -553,79 +548,76 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>#5151=IfcSlab('33as9O3zjEnAsHHJOULX_B',#20,'Floor:HD-265:1393736',$,'Floor:HD-265',#5110,#5150,'1393736',.FLOOR.)</t>
+          <t>#262=IfcBeam('2speJwgj5BXuZGLoQbaIAu',#20,'IPE-Beams:IPE300:424005',$,'IPE-Beams:IPE300',#245,#261,'424005')</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>IfcSlab</t>
+          <t>IfcBeam</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Concrete - B35</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Concrete</t>
-        </is>
+          <t>Steel</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>345</v>
       </c>
       <c r="F2" t="n">
-        <v>35</v>
+        <v>7.7</v>
       </c>
       <c r="G2" t="n">
-        <v>35.06</v>
+        <v>0.3</v>
       </c>
       <c r="H2" t="n">
-        <v>0.27</v>
+        <v>0.15</v>
       </c>
       <c r="I2" t="n">
-        <v>11.66</v>
+        <v>0.038</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1482</v>
-      </c>
-      <c r="K2" t="n">
-        <v>110.375892</v>
+        <v>0.005</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>IPE300</t>
+        </is>
       </c>
       <c r="L2" t="n">
-        <v>0.019125315</v>
+        <v>83.56</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>491</v>
+        <v>100</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>59.94161606</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>59.94161606</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
           <t>10.72994518</t>
         </is>
       </c>
+      <c r="P2" t="n">
+        <v>9263</v>
+      </c>
       <c r="Q2" t="n">
-        <v>400</v>
-      </c>
-      <c r="R2" t="n">
-        <v>435</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
+        <v>600</v>
+      </c>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="n">
+        <v>356.6255</v>
+      </c>
       <c r="T2" t="n">
-        <v>44150.3568</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>416.835</v>
       </c>
       <c r="V2" t="n">
-        <v>1259.28</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1259.28</v>
+        <v>416.835</v>
       </c>
     </row>
     <row r="3">
@@ -636,7 +628,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>#5202=IfcBeam('33as9O3zjEnAsHHJOULXyg',#20,'Beam IPE:IPE 270:1393897',$,'Beam IPE:IPE 270',#5185,#5201,'1393897')</t>
+          <t>#1276=IfcBeam('1bOKRzqOb6SwEvoA8aa9fP',#20,'IPE-Beams:IPE300:440701',$,'IPE-Beams:IPE300',#1263,#1275,'440701')</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -646,71 +638,66 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Steel - S355</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
           <t>Steel</t>
         </is>
       </c>
+      <c r="E3" t="n">
+        <v>345</v>
+      </c>
       <c r="F3" t="n">
-        <v>355</v>
+        <v>15.75</v>
       </c>
       <c r="G3" t="n">
-        <v>34.67</v>
+        <v>0.3</v>
       </c>
       <c r="H3" t="n">
-        <v>0.27</v>
+        <v>0.15</v>
       </c>
       <c r="I3" t="n">
-        <v>0.13</v>
+        <v>0.079</v>
       </c>
       <c r="J3" t="n">
-        <v>0.03510000000000001</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.216917</v>
+        <v>0.005</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>IPE300</t>
+        </is>
       </c>
       <c r="L3" t="n">
-        <v>0.0002132325</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>IPE 270</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
+        <v>83.56</v>
+      </c>
+      <c r="M3" t="n">
         <v>100</v>
       </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>59.94161606</t>
+        </is>
+      </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>59.94161606</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
           <t>10.72994518</t>
         </is>
       </c>
+      <c r="P3" t="n">
+        <v>9263</v>
+      </c>
       <c r="Q3" t="n">
-        <v>9263</v>
-      </c>
-      <c r="R3" t="n">
         <v>600</v>
       </c>
-      <c r="S3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="n">
+        <v>729.4612499999999</v>
+      </c>
       <c r="T3" t="n">
-        <v>11272.302171</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>416.835</v>
       </c>
       <c r="V3" t="n">
-        <v>325.1313000000001</v>
-      </c>
-      <c r="W3" t="n">
-        <v>325.1313000000001</v>
+        <v>416.835</v>
       </c>
     </row>
     <row r="4">
@@ -721,81 +708,76 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>#5267=IfcBeam('33as9O3zjEnAsHHJOULXxA',#20,'Beam IPE:IPE 270:1393929',$,'Beam IPE:IPE 270',#5254,#5266,'1393929')</t>
+          <t>#508=IfcColumn('2speJwgj5BXuZGLoQbaIV$',#20,'H-Wide Flange-Column:HE260A:425218',$,'H-Wide Flange-Column:HE260A',#507,#504,'425218')</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>IfcBeam</t>
+          <t>IfcColumn</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Steel - S355</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
           <t>Steel</t>
         </is>
       </c>
+      <c r="E4" t="n">
+        <v>345</v>
+      </c>
       <c r="F4" t="n">
-        <v>355</v>
+        <v>0.26</v>
       </c>
       <c r="G4" t="n">
-        <v>34.67</v>
+        <v>6</v>
       </c>
       <c r="H4" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="I4" t="n">
-        <v>0.13</v>
+        <v>0.054</v>
       </c>
       <c r="J4" t="n">
-        <v>0.03510000000000001</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.216917</v>
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>HE260A</t>
+        </is>
       </c>
       <c r="L4" t="n">
-        <v>0.0002132325</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>IPE 270</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
+        <v>104.5</v>
+      </c>
+      <c r="M4" t="n">
         <v>100</v>
       </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>59.94161606</t>
+        </is>
+      </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>59.94161606</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
           <t>10.72994518</t>
         </is>
       </c>
+      <c r="P4" t="n">
+        <v>9263</v>
+      </c>
       <c r="Q4" t="n">
-        <v>9263</v>
-      </c>
-      <c r="R4" t="n">
         <v>600</v>
       </c>
-      <c r="S4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="n">
+        <v>21.67542</v>
+      </c>
       <c r="T4" t="n">
-        <v>11272.302171</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>13894.5</v>
       </c>
       <c r="V4" t="n">
-        <v>325.1313000000001</v>
-      </c>
-      <c r="W4" t="n">
-        <v>325.1313000000001</v>
+        <v>13894.5</v>
       </c>
     </row>
     <row r="5">
@@ -806,81 +788,76 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>#5294=IfcBeam('33as9O3zjEnAsHHJOULXxO',#20,'Beam IPE:IPE 270:1393947',$,'Beam IPE:IPE 270',#5281,#5293,'1393947')</t>
+          <t>#580=IfcColumn('2speJwgj5BXuZGLoQbaISW',#20,'H-Wide Flange-Column:HE260A:425437',$,'H-Wide Flange-Column:HE260A',#579,#576,'425437')</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>IfcBeam</t>
+          <t>IfcColumn</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Steel - S355</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
           <t>Steel</t>
         </is>
       </c>
+      <c r="E5" t="n">
+        <v>345</v>
+      </c>
       <c r="F5" t="n">
-        <v>355</v>
+        <v>0.26</v>
       </c>
       <c r="G5" t="n">
-        <v>11.27</v>
+        <v>6</v>
       </c>
       <c r="H5" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="I5" t="n">
-        <v>0.13</v>
+        <v>0.054</v>
       </c>
       <c r="J5" t="n">
-        <v>0.03510000000000001</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.3955770000000001</v>
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>HE260A</t>
+        </is>
       </c>
       <c r="L5" t="n">
-        <v>0.0002132325</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>IPE 270</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
+        <v>104.5</v>
+      </c>
+      <c r="M5" t="n">
         <v>100</v>
       </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>59.94161606</t>
+        </is>
+      </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>59.94161606</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
           <t>10.72994518</t>
         </is>
       </c>
+      <c r="P5" t="n">
+        <v>9263</v>
+      </c>
       <c r="Q5" t="n">
-        <v>9263</v>
-      </c>
-      <c r="R5" t="n">
         <v>600</v>
       </c>
-      <c r="S5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="n">
+        <v>21.67542</v>
+      </c>
       <c r="T5" t="n">
-        <v>3664.229751000001</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>13894.5</v>
       </c>
       <c r="V5" t="n">
-        <v>325.1313000000001</v>
-      </c>
-      <c r="W5" t="n">
-        <v>325.1313000000001</v>
+        <v>13894.5</v>
       </c>
     </row>
     <row r="6">
@@ -891,79 +868,76 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>#7660=IfcSlab('2I9WHjl$58$uOG2hQYWWMS',#20,'Punktfundament:F4:1408628',$,'Punktfundament:F4',#7650,#7659,'1408628',.BASESLAB.)</t>
+          <t>#597=IfcColumn('2speJwgj5BXuZGLoQbaIJ7',#20,'H-Wide Flange-Column:HE260A:425530',$,'H-Wide Flange-Column:HE260A',#596,#593,'425530')</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>IfcSlab</t>
+          <t>IfcColumn</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Concrete - B35</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Concrete</t>
-        </is>
+          <t>Steel</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>345</v>
       </c>
       <c r="F6" t="n">
-        <v>35</v>
+        <v>0.26</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>0.054</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
-      </c>
-      <c r="K6" t="n">
-        <v>8</v>
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>HE260A</t>
+        </is>
       </c>
       <c r="L6" t="n">
-        <v>1.333333333333333</v>
+        <v>104.5</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>491</v>
+        <v>100</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>59.94161606</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>59.94161606</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
           <t>10.72994518</t>
         </is>
       </c>
+      <c r="P6" t="n">
+        <v>9263</v>
+      </c>
       <c r="Q6" t="n">
-        <v>400</v>
-      </c>
-      <c r="R6" t="n">
-        <v>435</v>
-      </c>
-      <c r="S6" t="inlineStr"/>
+        <v>600</v>
+      </c>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="n">
+        <v>21.67542</v>
+      </c>
       <c r="T6" t="n">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>13894.5</v>
       </c>
       <c r="V6" t="n">
-        <v>1600</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1600</v>
+        <v>13894.5</v>
       </c>
     </row>
     <row r="7">
@@ -974,79 +948,76 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>#7691=IfcSlab('2I9WHjl$58$uOG2hQYWWMU',#20,'Punktfundament:F3:1408630',$,'Punktfundament:F3',#7681,#7690,'1408630',.BASESLAB.)</t>
+          <t>#614=IfcColumn('2speJwgj5BXuZGLoQbaIIK',#20,'H-Wide Flange-Column:HE260A:425577',$,'H-Wide Flange-Column:HE260A',#613,#610,'425577')</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>IfcSlab</t>
+          <t>IfcColumn</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Concrete - B35</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Concrete</t>
-        </is>
+          <t>Steel</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>345</v>
       </c>
       <c r="F7" t="n">
-        <v>35</v>
+        <v>0.26</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>0.054</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
-      </c>
-      <c r="K7" t="n">
-        <v>8</v>
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>HE260A</t>
+        </is>
       </c>
       <c r="L7" t="n">
-        <v>1.333333333333333</v>
+        <v>104.5</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>491</v>
+        <v>100</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>59.94161606</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>59.94161606</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
           <t>10.72994518</t>
         </is>
       </c>
+      <c r="P7" t="n">
+        <v>9263</v>
+      </c>
       <c r="Q7" t="n">
-        <v>400</v>
-      </c>
-      <c r="R7" t="n">
-        <v>435</v>
-      </c>
-      <c r="S7" t="inlineStr"/>
+        <v>600</v>
+      </c>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="n">
+        <v>21.67542</v>
+      </c>
       <c r="T7" t="n">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>13894.5</v>
       </c>
       <c r="V7" t="n">
-        <v>1600</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1600</v>
+        <v>13894.5</v>
       </c>
     </row>
     <row r="8">
@@ -1057,79 +1028,76 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>#8453=IfcSlab('2r6pcFq511UeZXcuDB_GrX',#20,'Floor:Lettak-element:1412380',$,'Floor:Lettak-element',#8439,#8452,'1412380',.FLOOR.)</t>
+          <t>#631=IfcColumn('2speJwgj5BXuZGLoQbaIHW',#20,'H-Wide Flange-Column:HE260A:425629',$,'H-Wide Flange-Column:HE260A',#630,#627,'425629')</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>IfcBeam</t>
+          <t>IfcColumn</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Timber - C24</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Timber</t>
-        </is>
+          <t>Steel</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>345</v>
       </c>
       <c r="F8" t="n">
-        <v>24</v>
+        <v>0.26</v>
       </c>
       <c r="G8" t="n">
-        <v>35.3</v>
+        <v>6</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4</v>
+        <v>0.054</v>
       </c>
       <c r="J8" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="K8" t="n">
-        <v>5.648000000000001</v>
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>HE260A</t>
+        </is>
       </c>
       <c r="L8" t="n">
-        <v>0.002133333333333334</v>
+        <v>104.5</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>200</v>
+        <v>100</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>59.94161606</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>59.94161606</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
           <t>10.72994518</t>
         </is>
       </c>
+      <c r="P8" t="n">
+        <v>9263</v>
+      </c>
       <c r="Q8" t="n">
-        <v>15</v>
-      </c>
-      <c r="R8" t="n">
-        <v>100</v>
-      </c>
-      <c r="S8" t="inlineStr"/>
+        <v>600</v>
+      </c>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="n">
+        <v>21.67542</v>
+      </c>
       <c r="T8" t="n">
-        <v>84.72000000000001</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>13894.5</v>
       </c>
       <c r="V8" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="W8" t="n">
-        <v>2.4</v>
+        <v>13894.5</v>
       </c>
     </row>
     <row r="9">
@@ -1140,7 +1108,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>#7660=IfcSlab('2I9WHjl$58$uOG2hQYWWMS',#20,'Punktfundament:F4:1408628',$,'Punktfundament:F4',#7650,#7659,'1408628',.BASESLAB.)</t>
+          <t>#2054=IfcWindow('1P2GQ2_ErEoggRn3yvd$zY',#20,'Awning - 1LT:AW1812:456669',$,'Awning - 1LT:AW1812',#2496,#2050,'456669',1.7999999999999661,1.21)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1150,69 +1118,64 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Door</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Door</t>
-        </is>
+          <t>Timber</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0.28125</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
         <v>200</v>
       </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>59.94161606</t>
+        </is>
+      </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>59.94161606</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
           <t>10.72994518</t>
         </is>
       </c>
+      <c r="P9" t="n">
+        <v>15</v>
+      </c>
       <c r="Q9" t="n">
-        <v>10</v>
-      </c>
-      <c r="R9" t="n">
-        <v>250</v>
-      </c>
-      <c r="S9" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
       <c r="T9" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="V9" t="n">
-        <v>15</v>
-      </c>
-      <c r="W9" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
@@ -1223,7 +1186,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>#7691=IfcSlab('2I9WHjl$58$uOG2hQYWWMU',#20,'Punktfundament:F3:1408630',$,'Punktfundament:F3',#7681,#7690,'1408630',.BASESLAB.)</t>
+          <t>#2132=IfcWindow('1P2GQ2_ErEoggRn3yvd$0R',#20,'Awning - 1L:AW1212:456868',$,'Awning - 1L:AW1212',#2517,#2128,'456868',1.1999999999999655,1.21)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1233,69 +1196,64 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Door</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Door</t>
-        </is>
+          <t>Timber</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0.28125</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
         <v>200</v>
       </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>59.94161606</t>
+        </is>
+      </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>59.94161606</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
           <t>10.72994518</t>
         </is>
       </c>
+      <c r="P10" t="n">
+        <v>15</v>
+      </c>
       <c r="Q10" t="n">
-        <v>10</v>
-      </c>
-      <c r="R10" t="n">
-        <v>250</v>
-      </c>
-      <c r="S10" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
       <c r="T10" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="V10" t="n">
-        <v>15</v>
-      </c>
-      <c r="W10" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11">
@@ -1306,79 +1264,620 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>#8453=IfcSlab('2r6pcFq511UeZXcuDB_GrX',#20,'Floor:Lettak-element:1412380',$,'Floor:Lettak-element',#8439,#8452,'1412380',.FLOOR.)</t>
+          <t>#905=IfcSlab('1bOKRzqOb6SwEvoA8aa9Jn',#20,'Floor:160mm Concrete With 50mm Metal Deck:440277',$,'Floor:160mm Concrete With 50mm Metal Deck',#886,#904,'440277',.FLOOR.)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>IfcSlab</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Concrete</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>35</v>
+      </c>
+      <c r="F11" t="n">
+        <v>24</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H11" t="n">
+        <v>16</v>
+      </c>
+      <c r="I11" t="n">
+        <v>82.68487500000001</v>
+      </c>
+      <c r="J11" t="n">
+        <v>393.7375</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>491</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>59.94161606</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>10.72994518</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>400</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>435</v>
+      </c>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="n">
+        <v>3779880</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1344</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>D10</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>#1304=IfcSlab('1bOKRzqOb6SwEvoA8aa9ga',#20,'Floor:160mm Concrete With 50mm Metal Deck:440704',$,'Floor:160mm Concrete With 50mm Metal Deck',#1289,#1303,'440704',.FLOOR.)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>IfcSlab</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Concrete</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>35</v>
+      </c>
+      <c r="F12" t="n">
+        <v>24</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H12" t="n">
+        <v>12</v>
+      </c>
+      <c r="I12" t="n">
+        <v>82.83659999999999</v>
+      </c>
+      <c r="J12" t="n">
+        <v>394.46</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>491</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>59.94161606</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>10.72994518</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>400</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>435</v>
+      </c>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="n">
+        <v>3786816</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1008</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>D11</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>#205=IfcWallStandardCase('2speJwgj5BXuZGLoQbaJNj',#20,'Basic Wall:Generic - 300mm:421648',$,'Basic Wall:Generic - 300mm',#193,#204,'421648')</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>IfcWall</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Concrete</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>35</v>
+      </c>
+      <c r="F13" t="n">
+        <v>8</v>
+      </c>
+      <c r="G13" t="n">
+        <v>8</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I13" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J13" t="n">
+        <v>64</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>491</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>59.94161606</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>10.72994518</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>400</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>435</v>
+      </c>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="n">
+        <v>204800</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>960</v>
+      </c>
+      <c r="V13" t="n">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>D12</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>#231=IfcWallStandardCase('2speJwgj5BXuZGLoQbaJNi',#20,'Basic Wall:Generic - 300mm:421649',$,'Basic Wall:Generic - 300mm',#219,#230,'421649')</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>IfcWall</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Concrete</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>35</v>
+      </c>
+      <c r="F14" t="n">
+        <v>8</v>
+      </c>
+      <c r="G14" t="n">
+        <v>8</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J14" t="n">
+        <v>64</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>491</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>59.94161606</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>10.72994518</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>400</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>435</v>
+      </c>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="n">
+        <v>204800</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>960</v>
+      </c>
+      <c r="V14" t="n">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>D13</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>#2054=IfcWindow('1P2GQ2_ErEoggRn3yvd$zY',#20,'Awning - 1LT:AW1812:456669',$,'Awning - 1LT:AW1812',#2496,#2050,'456669',1.7999999999999661,1.21)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>IfcWindow</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Window</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Window</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Timber</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H15" t="n">
         <v>1</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I15" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.178</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>200</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>59.94161606</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>10.72994518</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>100</v>
+      </c>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>18</v>
+      </c>
+      <c r="V15" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>D14</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>#2132=IfcWindow('1P2GQ2_ErEoggRn3yvd$0R',#20,'Awning - 1L:AW1212:456868',$,'Awning - 1L:AW1212',#2517,#2128,'456868',1.1999999999999655,1.21)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>IfcWindow</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Timber</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H16" t="n">
         <v>1</v>
       </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>491</v>
-      </c>
-      <c r="O11" t="inlineStr">
+      <c r="I16" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.452</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>200</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>59.94161606</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>10.72994518</t>
         </is>
       </c>
-      <c r="Q11" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="R11" t="n">
-        <v>435</v>
-      </c>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="W11" t="n">
-        <v>28.9</v>
+      <c r="P16" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>100</v>
+      </c>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>D15</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>#2151=IfcWindow('1P2GQ2_ErEoggRn3yvd$18',#20,'Awning - 1L:AW1212:456951',$,'Awning - 1L:AW1212',#2538,#2147,'456951',1.1999999999999655,1.21)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>IfcWindow</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Timber</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.452</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>200</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>59.94161606</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>10.72994518</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>100</v>
+      </c>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="n">
+        <v>26.3538</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>53.99999999999999</v>
+      </c>
+      <c r="V17" t="n">
+        <v>53.99999999999999</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>D16</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>#2132=IfcWindow('1P2GQ2_ErEoggRn3yvd$0R',#20,'Awning - 1L:AW1212:456868',$,'Awning - 1L:AW1212',#2517,#2128,'456868',1.1999999999999655,1.21)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>IfcDoor</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Timber</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>200</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>59.94161606</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>10.72994518</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>100</v>
+      </c>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>39</v>
+      </c>
+      <c r="V18" t="n">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
